--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H2">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.4433952585384444</v>
+        <v>0.5199641968875555</v>
       </c>
       <c r="R2">
-        <v>3.990557326846</v>
+        <v>4.679677771988</v>
       </c>
       <c r="S2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="T2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H3">
         <v>12.47932</v>
       </c>
       <c r="I3">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J3">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.142387457804444</v>
+        <v>1.142387457804445</v>
       </c>
       <c r="R3">
         <v>10.28148712024</v>
       </c>
       <c r="S3">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="T3">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H4">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I4">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J4">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1004412854688889</v>
+        <v>0.3405962058704444</v>
       </c>
       <c r="R4">
-        <v>0.90397156922</v>
+        <v>3.065365852834</v>
       </c>
       <c r="S4">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="T4">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H5">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I5">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J5">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>2.661645181260222</v>
+        <v>7.4064932095</v>
       </c>
       <c r="R5">
-        <v>23.954806631342</v>
+        <v>66.65843888549999</v>
       </c>
       <c r="S5">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="T5">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
     </row>
   </sheetData>
